--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -1,36 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donnie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donnie\Desktop\论文材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6F09B-B0E1-4DD2-9202-D2D34019DE4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60686FEA-A622-41A3-B52C-B96617578380}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{24DB45F2-BE9B-4FA8-A49F-ED3255A3C19F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{24DB45F2-BE9B-4FA8-A49F-ED3255A3C19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HM模块分析" sheetId="2" r:id="rId2"/>
+    <sheet name="时序图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>BQSquare_416x240</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +74,18 @@
   </si>
   <si>
     <t>CUDA_ACC xTrMxN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧内预测模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变换量化模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他功能函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5220247-5CCC-449A-8BE2-7D7294752346}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -538,4 +547,51 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82AEDC3-5008-42FD-8B6A-E553ADDC491B}">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7048501B-C1B2-4119-AFAB-91B8347F1CCC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>